--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_full_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_full_cca.cluster.0.5_speed_coherence.xlsx
@@ -635,7 +635,7 @@
         <v>0.9523546334723352</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9432959586990123</v>
+        <v>0.9432972937214131</v>
       </c>
       <c r="Q3" t="n">
         <v>0.9559317373981079</v>
